--- a/PRO Tracker(工单录入模板).xlsx
+++ b/PRO Tracker(工单录入模板).xlsx
@@ -71,30 +71,6 @@
     <t>B0029045</t>
   </si>
   <si>
-    <t>F0921</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1012</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3065</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2078</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2041</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Order Number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -104,6 +80,30 @@
   </si>
   <si>
     <t>B5VR M038 SE S30 VM1 2IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F0955</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2066</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3055</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3066</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +438,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,7 +449,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -472,13 +472,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -498,7 +498,7 @@
         <v>2020</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -513,7 +513,7 @@
         <v>43873</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -524,7 +524,7 @@
         <v>2020</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -539,7 +539,7 @@
         <v>43842</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -565,7 +565,7 @@
         <v>43902</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -576,7 +576,7 @@
         <v>2020</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>7</v>
@@ -591,7 +591,7 @@
         <v>43933</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -602,7 +602,7 @@
         <v>2020</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -617,7 +617,7 @@
         <v>43963</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -628,7 +628,7 @@
         <v>2020</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
         <v>9</v>
@@ -643,7 +643,7 @@
         <v>43994</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/PRO Tracker(工单录入模板).xlsx
+++ b/PRO Tracker(工单录入模板).xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC224542-9633-497C-94D9-3E8850BAF66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Line</t>
   </si>
@@ -80,38 +73,14 @@
   </si>
   <si>
     <t>B5VR M038 SE S30 VM1 2IN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F0955</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1055</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2055</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2066</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3055</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3066</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,33 +407,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="52.375" customWidth="1"/>
+    <col min="8" max="8" width="52.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -490,15 +459,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>2020</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
+      <c r="C2" s="1">
+        <v>1234567</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -516,15 +485,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>2020</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
+      <c r="C3" s="1">
+        <v>1234568</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -542,15 +511,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>2020</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
+      <c r="C4" s="1">
+        <v>1234569</v>
       </c>
       <c r="D4" s="1">
         <v>6</v>
@@ -568,15 +537,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>2020</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
+      <c r="C5" s="1">
+        <v>1234570</v>
       </c>
       <c r="D5" s="1">
         <v>7</v>
@@ -594,15 +563,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>2020</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
+      <c r="C6" s="1">
+        <v>1234571</v>
       </c>
       <c r="D6" s="1">
         <v>8</v>
@@ -620,15 +589,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>2020</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
+      <c r="C7" s="1">
+        <v>1234572</v>
       </c>
       <c r="D7" s="1">
         <v>9</v>
@@ -649,7 +618,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"B4 &amp; B5,SH7&amp;SH11,Orbital motor"</formula1>
     </dataValidation>
   </dataValidations>

--- a/PRO Tracker(工单录入模板).xlsx
+++ b/PRO Tracker(工单录入模板).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC224542-9633-497C-94D9-3E8850BAF66C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7FA06-8D89-4EFD-96FB-9A566510AFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Line</t>
   </si>
@@ -46,22 +46,10 @@
     <t>B0029033</t>
   </si>
   <si>
-    <t>B0029057</t>
-  </si>
-  <si>
     <t>SH7&amp;SH11</t>
   </si>
   <si>
-    <t>B0029078</t>
-  </si>
-  <si>
     <t>B0029032</t>
-  </si>
-  <si>
-    <t>Orbital motor</t>
-  </si>
-  <si>
-    <t>B0029045</t>
   </si>
   <si>
     <t>Order Number</t>
@@ -72,7 +60,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>B5VR M038 SE S30 VM1 2IN</t>
+    <t>B5VR M044 SE S30 VM1 2IN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5VR M055 SE S30 VM1 2IN</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -441,13 +433,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
@@ -467,7 +459,7 @@
         <v>2020</v>
       </c>
       <c r="C2" s="1">
-        <v>1234567</v>
+        <v>2234567</v>
       </c>
       <c r="D2" s="1">
         <v>4</v>
@@ -482,143 +474,39 @@
         <v>43873</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>2020</v>
       </c>
       <c r="C3" s="1">
-        <v>1234568</v>
+        <v>2235570</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
-        <v>43841</v>
+        <v>43931</v>
       </c>
       <c r="G3" s="2">
-        <v>43842</v>
+        <v>43933</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1234569</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>43900</v>
-      </c>
-      <c r="G4" s="2">
-        <v>43902</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1234570</v>
-      </c>
-      <c r="D5" s="1">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2">
-        <v>43931</v>
-      </c>
-      <c r="G5" s="2">
-        <v>43933</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1234571</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="2">
-        <v>43961</v>
-      </c>
-      <c r="G6" s="2">
-        <v>43963</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1234572</v>
-      </c>
-      <c r="D7" s="1">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2">
-        <v>43992</v>
-      </c>
-      <c r="G7" s="2">
-        <v>43994</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"B4 &amp; B5,SH7&amp;SH11,Orbital motor"</formula1>
     </dataValidation>
   </dataValidations>

--- a/PRO Tracker(工单录入模板).xlsx
+++ b/PRO Tracker(工单录入模板).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7FA06-8D89-4EFD-96FB-9A566510AFC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8089E1EA-4292-4637-A6E4-3DBB2C169487}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -459,19 +459,19 @@
         <v>2020</v>
       </c>
       <c r="C2" s="1">
-        <v>2234567</v>
+        <v>2236555</v>
       </c>
       <c r="D2" s="1">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2">
-        <v>43871</v>
+        <v>44175</v>
       </c>
       <c r="G2" s="2">
-        <v>43873</v>
+        <v>44268</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>12</v>
@@ -485,10 +485,10 @@
         <v>2020</v>
       </c>
       <c r="C3" s="1">
-        <v>2235570</v>
+        <v>2235555</v>
       </c>
       <c r="D3" s="1">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
